--- a/cirRNA/cirRNAInfo/static/table/mirna-cancer.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/mirna-cancer.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EB5D0-10CC-4C74-B1E5-0C3A349CF1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="miRNA-Cancer" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'miRNA-Cancer'!$B$1:$B$437</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1423,7 +1424,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1502,7 +1503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1577,6 +1578,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1612,6 +1630,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1787,21 +1822,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.08984375" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -1815,7 +1850,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>376</v>
       </c>
@@ -1829,7 +1864,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
@@ -1843,7 +1878,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>376</v>
       </c>
@@ -1857,7 +1892,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>376</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>376</v>
       </c>
@@ -1885,7 +1920,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>376</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>376</v>
       </c>
@@ -1913,7 +1948,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1927,7 +1962,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>376</v>
       </c>
@@ -1941,7 +1976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>376</v>
       </c>
@@ -1955,7 +1990,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>372</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>372</v>
       </c>
@@ -1983,7 +2018,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -1997,7 +2032,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>372</v>
       </c>
@@ -2011,7 +2046,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>372</v>
       </c>
@@ -2025,7 +2060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>372</v>
       </c>
@@ -2039,7 +2074,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>372</v>
       </c>
@@ -2053,7 +2088,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>372</v>
       </c>
@@ -2067,7 +2102,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>372</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>373</v>
       </c>
@@ -2095,7 +2130,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>374</v>
       </c>
@@ -2109,7 +2144,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>374</v>
       </c>
@@ -2123,7 +2158,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>374</v>
       </c>
@@ -2137,7 +2172,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>374</v>
       </c>
@@ -2151,7 +2186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>374</v>
       </c>
@@ -2165,7 +2200,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>374</v>
       </c>
@@ -2179,7 +2214,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>374</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>374</v>
       </c>
@@ -2207,7 +2242,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>374</v>
       </c>
@@ -2221,7 +2256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>374</v>
       </c>
@@ -2235,7 +2270,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>374</v>
       </c>
@@ -2249,7 +2284,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>374</v>
       </c>
@@ -2263,7 +2298,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>375</v>
       </c>
@@ -2277,7 +2312,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>375</v>
       </c>
@@ -2291,7 +2326,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>375</v>
       </c>
@@ -2305,7 +2340,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>377</v>
       </c>
@@ -2319,7 +2354,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>377</v>
       </c>
@@ -2333,7 +2368,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>378</v>
       </c>
@@ -2347,7 +2382,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>378</v>
       </c>
@@ -2361,7 +2396,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>378</v>
       </c>
@@ -2375,7 +2410,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>
@@ -2389,7 +2424,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>378</v>
       </c>
@@ -2403,7 +2438,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>378</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>378</v>
       </c>
@@ -2431,7 +2466,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>378</v>
       </c>
@@ -2445,7 +2480,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>378</v>
       </c>
@@ -2459,7 +2494,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>378</v>
       </c>
@@ -2473,7 +2508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>378</v>
       </c>
@@ -2487,7 +2522,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>378</v>
       </c>
@@ -2501,7 +2536,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>378</v>
       </c>
@@ -2515,7 +2550,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>378</v>
       </c>
@@ -2529,7 +2564,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>378</v>
       </c>
@@ -2543,7 +2578,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>378</v>
       </c>
@@ -2557,7 +2592,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>378</v>
       </c>
@@ -2571,7 +2606,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>379</v>
       </c>
@@ -2585,7 +2620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>379</v>
       </c>
@@ -2599,7 +2634,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>379</v>
       </c>
@@ -2613,7 +2648,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>379</v>
       </c>
@@ -2627,7 +2662,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>379</v>
       </c>
@@ -2641,7 +2676,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>379</v>
       </c>
@@ -2655,7 +2690,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>379</v>
       </c>
@@ -2669,7 +2704,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>379</v>
       </c>
@@ -2683,7 +2718,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>379</v>
       </c>
@@ -2697,7 +2732,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>379</v>
       </c>
@@ -2711,7 +2746,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>380</v>
       </c>
@@ -2725,7 +2760,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>380</v>
       </c>
@@ -2739,7 +2774,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>380</v>
       </c>
@@ -2753,7 +2788,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>380</v>
       </c>
@@ -2767,7 +2802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>380</v>
       </c>
@@ -2781,7 +2816,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>380</v>
       </c>
@@ -2795,7 +2830,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>380</v>
       </c>
@@ -2809,7 +2844,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>380</v>
       </c>
@@ -2823,7 +2858,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>380</v>
       </c>
@@ -2837,7 +2872,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>381</v>
       </c>
@@ -2851,7 +2886,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>381</v>
       </c>
@@ -2865,7 +2900,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>381</v>
       </c>
@@ -2879,7 +2914,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>381</v>
       </c>
@@ -2893,7 +2928,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>381</v>
       </c>
@@ -2907,7 +2942,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>382</v>
       </c>
@@ -2921,7 +2956,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>383</v>
       </c>
@@ -2935,7 +2970,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>383</v>
       </c>
@@ -2949,7 +2984,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>383</v>
       </c>
@@ -2963,7 +2998,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>383</v>
       </c>
@@ -2977,7 +3012,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>383</v>
       </c>
@@ -2991,7 +3026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>383</v>
       </c>
@@ -3005,7 +3040,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>383</v>
       </c>
@@ -3019,7 +3054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>383</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>383</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>384</v>
       </c>
@@ -3061,7 +3096,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>384</v>
       </c>
@@ -3075,7 +3110,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>384</v>
       </c>
@@ -3089,7 +3124,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>384</v>
       </c>
@@ -3103,7 +3138,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>384</v>
       </c>
@@ -3117,7 +3152,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>384</v>
       </c>
@@ -3131,7 +3166,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>384</v>
       </c>
@@ -3145,7 +3180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -3159,7 +3194,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>385</v>
       </c>
@@ -3173,7 +3208,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>385</v>
       </c>
@@ -3187,7 +3222,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>385</v>
       </c>
@@ -3201,7 +3236,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>385</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>385</v>
       </c>
@@ -3229,7 +3264,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>385</v>
       </c>
@@ -3243,7 +3278,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>385</v>
       </c>
@@ -3257,7 +3292,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>385</v>
       </c>
@@ -3271,7 +3306,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>385</v>
       </c>
@@ -3285,7 +3320,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>386</v>
       </c>
@@ -3299,7 +3334,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>386</v>
       </c>
@@ -3313,7 +3348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>386</v>
       </c>
@@ -3327,7 +3362,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>386</v>
       </c>
@@ -3341,7 +3376,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>386</v>
       </c>
@@ -3355,7 +3390,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>386</v>
       </c>
@@ -3369,7 +3404,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>386</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>386</v>
       </c>
@@ -3397,7 +3432,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>386</v>
       </c>
@@ -3411,7 +3446,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>386</v>
       </c>
@@ -3425,7 +3460,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>386</v>
       </c>
@@ -3439,7 +3474,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>386</v>
       </c>
@@ -3453,7 +3488,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>387</v>
       </c>
@@ -3467,7 +3502,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>388</v>
       </c>
@@ -3481,7 +3516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>388</v>
       </c>
@@ -3495,7 +3530,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>388</v>
       </c>
@@ -3509,7 +3544,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>388</v>
       </c>
@@ -3523,7 +3558,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>388</v>
       </c>
@@ -3537,7 +3572,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>388</v>
       </c>
@@ -3551,7 +3586,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>388</v>
       </c>
@@ -3565,7 +3600,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>388</v>
       </c>
@@ -3579,7 +3614,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>388</v>
       </c>
@@ -3593,7 +3628,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>388</v>
       </c>
@@ -3607,7 +3642,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>388</v>
       </c>
@@ -3621,7 +3656,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>388</v>
       </c>
@@ -3635,7 +3670,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>388</v>
       </c>
@@ -3649,7 +3684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>388</v>
       </c>
@@ -3663,7 +3698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>389</v>
       </c>
@@ -3677,7 +3712,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>389</v>
       </c>
@@ -3691,7 +3726,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>390</v>
       </c>
@@ -3705,7 +3740,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>390</v>
       </c>
@@ -3719,7 +3754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>391</v>
       </c>
@@ -3733,7 +3768,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>391</v>
       </c>
@@ -3747,7 +3782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>391</v>
       </c>
@@ -3761,7 +3796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>391</v>
       </c>
@@ -3775,7 +3810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>391</v>
       </c>
@@ -3789,7 +3824,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>391</v>
       </c>
@@ -3803,7 +3838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>392</v>
       </c>
@@ -3817,7 +3852,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>392</v>
       </c>
@@ -3831,7 +3866,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>392</v>
       </c>
@@ -3845,7 +3880,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>393</v>
       </c>
@@ -3859,7 +3894,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>393</v>
       </c>
@@ -3873,7 +3908,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>393</v>
       </c>
@@ -3887,7 +3922,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>393</v>
       </c>
@@ -3901,7 +3936,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>393</v>
       </c>
@@ -3915,7 +3950,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>393</v>
       </c>
@@ -3929,7 +3964,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>393</v>
       </c>
@@ -3943,7 +3978,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>393</v>
       </c>
@@ -3957,7 +3992,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>393</v>
       </c>
@@ -3971,7 +4006,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>393</v>
       </c>
@@ -3985,7 +4020,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>393</v>
       </c>
@@ -3999,7 +4034,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>393</v>
       </c>
@@ -4013,7 +4048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>393</v>
       </c>
@@ -4027,7 +4062,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>393</v>
       </c>
@@ -4041,7 +4076,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>393</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>394</v>
       </c>
@@ -4069,7 +4104,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>394</v>
       </c>
@@ -4083,7 +4118,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>394</v>
       </c>
@@ -4097,7 +4132,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>394</v>
       </c>
@@ -4111,7 +4146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>394</v>
       </c>
@@ -4125,7 +4160,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>394</v>
       </c>
@@ -4139,7 +4174,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>394</v>
       </c>
@@ -4153,7 +4188,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>394</v>
       </c>
@@ -4167,7 +4202,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>394</v>
       </c>
@@ -4181,7 +4216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>394</v>
       </c>
@@ -4195,7 +4230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>394</v>
       </c>
@@ -4209,7 +4244,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>394</v>
       </c>
@@ -4223,7 +4258,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>395</v>
       </c>
@@ -4237,7 +4272,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>396</v>
       </c>
@@ -4251,7 +4286,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>396</v>
       </c>
@@ -4265,7 +4300,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>396</v>
       </c>
@@ -4279,7 +4314,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>396</v>
       </c>
@@ -4293,7 +4328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>396</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>397</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>397</v>
       </c>
@@ -4335,7 +4370,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>397</v>
       </c>
@@ -4349,7 +4384,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>397</v>
       </c>
@@ -4363,7 +4398,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>398</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>398</v>
       </c>
@@ -4391,7 +4426,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>399</v>
       </c>
@@ -4405,7 +4440,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>399</v>
       </c>
@@ -4419,7 +4454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>399</v>
       </c>
@@ -4433,7 +4468,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>400</v>
       </c>
@@ -4447,7 +4482,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>401</v>
       </c>
@@ -4461,7 +4496,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>402</v>
       </c>
@@ -4475,7 +4510,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>402</v>
       </c>
@@ -4489,7 +4524,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>402</v>
       </c>
@@ -4503,7 +4538,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>402</v>
       </c>
@@ -4517,7 +4552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>402</v>
       </c>
@@ -4531,7 +4566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>402</v>
       </c>
@@ -4545,7 +4580,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>402</v>
       </c>
@@ -4559,7 +4594,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>403</v>
       </c>
@@ -4573,7 +4608,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>403</v>
       </c>
@@ -4587,7 +4622,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>403</v>
       </c>
@@ -4601,7 +4636,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>403</v>
       </c>
@@ -4615,7 +4650,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>403</v>
       </c>
@@ -4629,7 +4664,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>403</v>
       </c>
@@ -4643,7 +4678,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>403</v>
       </c>
@@ -4657,7 +4692,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>403</v>
       </c>
@@ -4671,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>403</v>
       </c>
@@ -4685,7 +4720,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>403</v>
       </c>
@@ -4699,7 +4734,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>403</v>
       </c>
@@ -4713,7 +4748,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>403</v>
       </c>
@@ -4727,7 +4762,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>404</v>
       </c>
@@ -4741,7 +4776,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>404</v>
       </c>
@@ -4755,7 +4790,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>404</v>
       </c>
@@ -4769,7 +4804,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>404</v>
       </c>
@@ -4783,7 +4818,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>405</v>
       </c>
@@ -4797,7 +4832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>406</v>
       </c>
@@ -4811,7 +4846,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>406</v>
       </c>
@@ -4825,7 +4860,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>406</v>
       </c>
@@ -4839,7 +4874,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>406</v>
       </c>
@@ -4853,7 +4888,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>406</v>
       </c>
@@ -4867,7 +4902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>406</v>
       </c>
@@ -4881,7 +4916,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>406</v>
       </c>
@@ -4895,7 +4930,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>406</v>
       </c>
@@ -4909,7 +4944,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>406</v>
       </c>
@@ -4923,7 +4958,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>407</v>
       </c>
@@ -4937,7 +4972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>407</v>
       </c>
@@ -4951,7 +4986,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>407</v>
       </c>
@@ -4965,7 +5000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>407</v>
       </c>
@@ -4979,7 +5014,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>407</v>
       </c>
@@ -4993,7 +5028,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>407</v>
       </c>
@@ -5007,7 +5042,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>407</v>
       </c>
@@ -5021,7 +5056,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>407</v>
       </c>
@@ -5035,7 +5070,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>408</v>
       </c>
@@ -5049,7 +5084,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>408</v>
       </c>
@@ -5063,7 +5098,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>409</v>
       </c>
@@ -5077,7 +5112,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>410</v>
       </c>
@@ -5091,7 +5126,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>410</v>
       </c>
@@ -5105,7 +5140,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>410</v>
       </c>
@@ -5119,7 +5154,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>410</v>
       </c>
@@ -5133,7 +5168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>410</v>
       </c>
@@ -5147,7 +5182,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>410</v>
       </c>
@@ -5161,7 +5196,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>410</v>
       </c>
@@ -5175,7 +5210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>410</v>
       </c>
@@ -5189,7 +5224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>410</v>
       </c>
@@ -5203,7 +5238,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>410</v>
       </c>
@@ -5217,7 +5252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>410</v>
       </c>
@@ -5231,7 +5266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>410</v>
       </c>
@@ -5245,7 +5280,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>410</v>
       </c>
@@ -5259,7 +5294,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>410</v>
       </c>
@@ -5273,7 +5308,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>411</v>
       </c>
@@ -5287,7 +5322,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>411</v>
       </c>
@@ -5301,7 +5336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>412</v>
       </c>
@@ -5315,7 +5350,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>412</v>
       </c>
@@ -5329,7 +5364,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>412</v>
       </c>
@@ -5343,7 +5378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>412</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>412</v>
       </c>
@@ -5371,7 +5406,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>412</v>
       </c>
@@ -5385,7 +5420,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>413</v>
       </c>
@@ -5399,7 +5434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>414</v>
       </c>
@@ -5413,7 +5448,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>415</v>
       </c>
@@ -5427,7 +5462,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>416</v>
       </c>
@@ -5441,7 +5476,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>416</v>
       </c>
@@ -5455,7 +5490,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>417</v>
       </c>
@@ -5469,7 +5504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>417</v>
       </c>
@@ -5483,7 +5518,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>417</v>
       </c>
@@ -5497,7 +5532,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>418</v>
       </c>
@@ -5511,7 +5546,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>418</v>
       </c>
@@ -5525,7 +5560,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>418</v>
       </c>
@@ -5539,7 +5574,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>418</v>
       </c>
@@ -5553,7 +5588,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>418</v>
       </c>
@@ -5567,7 +5602,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>418</v>
       </c>
@@ -5581,7 +5616,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>418</v>
       </c>
@@ -5595,7 +5630,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>418</v>
       </c>
@@ -5609,7 +5644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>419</v>
       </c>
@@ -5623,7 +5658,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>420</v>
       </c>
@@ -5637,7 +5672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>420</v>
       </c>
@@ -5651,7 +5686,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>420</v>
       </c>
@@ -5665,7 +5700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>420</v>
       </c>
@@ -5679,7 +5714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>420</v>
       </c>
@@ -5693,7 +5728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>420</v>
       </c>
@@ -5707,7 +5742,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>420</v>
       </c>
@@ -5721,7 +5756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>420</v>
       </c>
@@ -5735,7 +5770,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
         <v>420</v>
       </c>
@@ -5749,7 +5784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>420</v>
       </c>
@@ -5763,7 +5798,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>420</v>
       </c>
@@ -5777,7 +5812,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>420</v>
       </c>
@@ -5791,7 +5826,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>421</v>
       </c>
@@ -5805,7 +5840,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>421</v>
       </c>
@@ -5819,7 +5854,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>421</v>
       </c>
@@ -5833,7 +5868,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>421</v>
       </c>
@@ -5847,7 +5882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>421</v>
       </c>
@@ -5861,7 +5896,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>421</v>
       </c>
@@ -5875,7 +5910,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>421</v>
       </c>
@@ -5889,7 +5924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>421</v>
       </c>
@@ -5903,7 +5938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>421</v>
       </c>
@@ -5917,7 +5952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>421</v>
       </c>
@@ -5931,7 +5966,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>421</v>
       </c>
@@ -5945,7 +5980,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>422</v>
       </c>
@@ -5959,7 +5994,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>422</v>
       </c>
@@ -5973,7 +6008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>422</v>
       </c>
@@ -5987,7 +6022,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>422</v>
       </c>
@@ -6001,7 +6036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>423</v>
       </c>
@@ -6015,7 +6050,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>423</v>
       </c>
@@ -6029,7 +6064,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>424</v>
       </c>
@@ -6043,7 +6078,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>424</v>
       </c>
@@ -6057,7 +6092,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>424</v>
       </c>
@@ -6071,7 +6106,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>424</v>
       </c>
@@ -6085,7 +6120,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>425</v>
       </c>
@@ -6099,7 +6134,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>425</v>
       </c>
@@ -6113,7 +6148,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>425</v>
       </c>
@@ -6127,7 +6162,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>425</v>
       </c>
@@ -6141,7 +6176,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>425</v>
       </c>
@@ -6155,7 +6190,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>426</v>
       </c>
@@ -6169,7 +6204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>426</v>
       </c>
@@ -6183,7 +6218,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>426</v>
       </c>
@@ -6197,7 +6232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>426</v>
       </c>
@@ -6211,7 +6246,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>426</v>
       </c>
@@ -6225,7 +6260,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>426</v>
       </c>
@@ -6239,7 +6274,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>426</v>
       </c>
@@ -6253,7 +6288,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>426</v>
       </c>
@@ -6267,7 +6302,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>426</v>
       </c>
@@ -6281,7 +6316,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>426</v>
       </c>
@@ -6295,7 +6330,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>426</v>
       </c>
@@ -6309,7 +6344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>426</v>
       </c>
@@ -6323,7 +6358,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>426</v>
       </c>
@@ -6337,7 +6372,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>427</v>
       </c>
@@ -6351,7 +6386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>427</v>
       </c>
@@ -6365,7 +6400,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>427</v>
       </c>
@@ -6379,7 +6414,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>427</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>427</v>
       </c>
@@ -6407,7 +6442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>427</v>
       </c>
@@ -6421,7 +6456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>427</v>
       </c>
@@ -6435,7 +6470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>427</v>
       </c>
@@ -6449,7 +6484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>427</v>
       </c>
@@ -6463,7 +6498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>428</v>
       </c>
@@ -6477,7 +6512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>428</v>
       </c>
@@ -6491,7 +6526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>428</v>
       </c>
@@ -6505,7 +6540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>428</v>
       </c>
@@ -6519,7 +6554,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="3" t="s">
         <v>428</v>
       </c>
@@ -6533,7 +6568,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>428</v>
       </c>
@@ -6547,7 +6582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>428</v>
       </c>
@@ -6561,7 +6596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>428</v>
       </c>
@@ -6575,7 +6610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>428</v>
       </c>
@@ -6589,7 +6624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>428</v>
       </c>
@@ -6603,7 +6638,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>428</v>
       </c>
@@ -6617,7 +6652,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>428</v>
       </c>
@@ -6631,7 +6666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>428</v>
       </c>
@@ -6645,7 +6680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>428</v>
       </c>
@@ -6659,7 +6694,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>429</v>
       </c>
@@ -6673,7 +6708,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>429</v>
       </c>
@@ -6687,7 +6722,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>429</v>
       </c>
@@ -6701,7 +6736,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>429</v>
       </c>
@@ -6715,7 +6750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>429</v>
       </c>
@@ -6729,7 +6764,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>429</v>
       </c>
@@ -6743,7 +6778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>429</v>
       </c>
@@ -6757,7 +6792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>429</v>
       </c>
@@ -6771,7 +6806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>429</v>
       </c>
@@ -6785,7 +6820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>429</v>
       </c>
@@ -6799,7 +6834,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>429</v>
       </c>
@@ -6813,7 +6848,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>429</v>
       </c>
@@ -6827,7 +6862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>430</v>
       </c>
@@ -6841,7 +6876,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>430</v>
       </c>
@@ -6855,7 +6890,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>430</v>
       </c>
@@ -6869,7 +6904,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>430</v>
       </c>
@@ -6883,7 +6918,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>430</v>
       </c>
@@ -6897,7 +6932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>430</v>
       </c>
@@ -6911,7 +6946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>430</v>
       </c>
@@ -6925,7 +6960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>431</v>
       </c>
@@ -6939,7 +6974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>431</v>
       </c>
@@ -6953,7 +6988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>431</v>
       </c>
@@ -6967,7 +7002,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>431</v>
       </c>
@@ -6981,7 +7016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>431</v>
       </c>
@@ -6995,7 +7030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>431</v>
       </c>
@@ -7009,7 +7044,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>431</v>
       </c>
@@ -7023,7 +7058,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>431</v>
       </c>
@@ -7037,7 +7072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>431</v>
       </c>
@@ -7051,7 +7086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>431</v>
       </c>
@@ -7065,7 +7100,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>432</v>
       </c>
@@ -7079,7 +7114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>432</v>
       </c>
@@ -7093,7 +7128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>432</v>
       </c>
@@ -7107,7 +7142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>432</v>
       </c>
@@ -7121,7 +7156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>432</v>
       </c>
@@ -7135,7 +7170,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>432</v>
       </c>
@@ -7149,7 +7184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>432</v>
       </c>
@@ -7163,7 +7198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>432</v>
       </c>
@@ -7177,7 +7212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>432</v>
       </c>
@@ -7191,7 +7226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>432</v>
       </c>
@@ -7205,7 +7240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>433</v>
       </c>
@@ -7219,7 +7254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>433</v>
       </c>
@@ -7233,7 +7268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>433</v>
       </c>
@@ -7247,7 +7282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>433</v>
       </c>
@@ -7261,7 +7296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>433</v>
       </c>
@@ -7275,7 +7310,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>434</v>
       </c>
@@ -7289,7 +7324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>435</v>
       </c>
@@ -7303,7 +7338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="3" t="s">
         <v>436</v>
       </c>
@@ -7317,7 +7352,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="3" t="s">
         <v>437</v>
       </c>
@@ -7331,7 +7366,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="3" t="s">
         <v>437</v>
       </c>
@@ -7345,7 +7380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
         <v>437</v>
       </c>
@@ -7359,7 +7394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="3" t="s">
         <v>437</v>
       </c>
@@ -7373,7 +7408,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="3" t="s">
         <v>437</v>
       </c>
@@ -7387,7 +7422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="3" t="s">
         <v>437</v>
       </c>
@@ -7401,7 +7436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="3" t="s">
         <v>437</v>
       </c>
@@ -7415,7 +7450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="3" t="s">
         <v>437</v>
       </c>
@@ -7429,7 +7464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="3" t="s">
         <v>437</v>
       </c>
@@ -7443,7 +7478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="3" t="s">
         <v>437</v>
       </c>
@@ -7457,7 +7492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
         <v>437</v>
       </c>
@@ -7471,7 +7506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="3" t="s">
         <v>437</v>
       </c>
@@ -7485,7 +7520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="3" t="s">
         <v>437</v>
       </c>
@@ -7499,7 +7534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="3" t="s">
         <v>438</v>
       </c>
@@ -7513,7 +7548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="3" t="s">
         <v>439</v>
       </c>
@@ -7527,7 +7562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
         <v>439</v>
       </c>
@@ -7541,7 +7576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="3" t="s">
         <v>439</v>
       </c>
@@ -7555,7 +7590,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="3" t="s">
         <v>439</v>
       </c>
@@ -7569,7 +7604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="3" t="s">
         <v>440</v>
       </c>
@@ -7583,7 +7618,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="3" t="s">
         <v>440</v>
       </c>
@@ -7597,7 +7632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="3" t="s">
         <v>440</v>
       </c>
@@ -7611,7 +7646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
         <v>440</v>
       </c>
@@ -7625,7 +7660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="3" t="s">
         <v>440</v>
       </c>
@@ -7639,7 +7674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="3" t="s">
         <v>440</v>
       </c>
@@ -7653,7 +7688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="3" t="s">
         <v>440</v>
       </c>
@@ -7667,7 +7702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="3" t="s">
         <v>441</v>
       </c>
@@ -7681,7 +7716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="3" t="s">
         <v>441</v>
       </c>
@@ -7695,7 +7730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
         <v>441</v>
       </c>
@@ -7709,7 +7744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="3" t="s">
         <v>442</v>
       </c>
@@ -7723,85 +7758,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
     </row>
-    <row r="425" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
     </row>
-    <row r="426" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
     </row>
-    <row r="427" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
     </row>
-    <row r="428" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
     </row>
-    <row r="429" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
     </row>
-    <row r="430" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
     </row>
-    <row r="431" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
     </row>
-    <row r="432" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
     </row>
-    <row r="433" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
     </row>
-    <row r="434" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
     </row>
-    <row r="435" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
     </row>
-    <row r="436" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
     </row>
-    <row r="437" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:4" ht="14" x14ac:dyDescent="0.25">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>

--- a/cirRNA/cirRNAInfo/static/table/mirna-cancer.xlsx
+++ b/cirRNA/cirRNAInfo/static/table/mirna-cancer.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9EB5D0-10CC-4C74-B1E5-0C3A349CF1D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="miRNA-Cancer" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'miRNA-Cancer'!$B$1:$B$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$437</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1424,7 +1423,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1503,7 +1502,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1578,23 +1577,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1630,23 +1612,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1822,21 +1787,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D437"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="37.08984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.125" style="3" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>369</v>
       </c>
@@ -1850,7 +1815,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>376</v>
       </c>
@@ -1864,7 +1829,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>376</v>
       </c>
@@ -1878,7 +1843,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>376</v>
       </c>
@@ -1892,7 +1857,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>376</v>
       </c>
@@ -1906,7 +1871,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>376</v>
       </c>
@@ -1920,7 +1885,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>376</v>
       </c>
@@ -1934,7 +1899,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>376</v>
       </c>
@@ -1948,7 +1913,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1962,7 +1927,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>376</v>
       </c>
@@ -1976,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>376</v>
       </c>
@@ -1990,7 +1955,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>372</v>
       </c>
@@ -2004,7 +1969,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>372</v>
       </c>
@@ -2018,7 +1983,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>372</v>
       </c>
@@ -2032,7 +1997,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>372</v>
       </c>
@@ -2046,7 +2011,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>372</v>
       </c>
@@ -2060,7 +2025,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>372</v>
       </c>
@@ -2074,7 +2039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>372</v>
       </c>
@@ -2088,7 +2053,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>372</v>
       </c>
@@ -2102,7 +2067,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>372</v>
       </c>
@@ -2116,7 +2081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>373</v>
       </c>
@@ -2130,7 +2095,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>374</v>
       </c>
@@ -2144,7 +2109,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>374</v>
       </c>
@@ -2158,7 +2123,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>374</v>
       </c>
@@ -2172,7 +2137,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>374</v>
       </c>
@@ -2186,7 +2151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>374</v>
       </c>
@@ -2200,7 +2165,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>374</v>
       </c>
@@ -2214,7 +2179,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>374</v>
       </c>
@@ -2228,7 +2193,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>374</v>
       </c>
@@ -2242,7 +2207,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>374</v>
       </c>
@@ -2256,7 +2221,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>374</v>
       </c>
@@ -2270,7 +2235,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>374</v>
       </c>
@@ -2284,7 +2249,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>374</v>
       </c>
@@ -2298,7 +2263,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>375</v>
       </c>
@@ -2312,7 +2277,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>375</v>
       </c>
@@ -2326,7 +2291,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>375</v>
       </c>
@@ -2340,7 +2305,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>377</v>
       </c>
@@ -2354,7 +2319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>377</v>
       </c>
@@ -2368,7 +2333,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>378</v>
       </c>
@@ -2382,7 +2347,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>378</v>
       </c>
@@ -2396,7 +2361,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>378</v>
       </c>
@@ -2410,7 +2375,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>378</v>
       </c>
@@ -2424,7 +2389,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>378</v>
       </c>
@@ -2438,7 +2403,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>378</v>
       </c>
@@ -2452,7 +2417,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>378</v>
       </c>
@@ -2466,7 +2431,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>378</v>
       </c>
@@ -2480,7 +2445,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>378</v>
       </c>
@@ -2494,7 +2459,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>378</v>
       </c>
@@ -2508,7 +2473,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>378</v>
       </c>
@@ -2522,7 +2487,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>378</v>
       </c>
@@ -2536,7 +2501,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>378</v>
       </c>
@@ -2550,7 +2515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>378</v>
       </c>
@@ -2564,7 +2529,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>378</v>
       </c>
@@ -2578,7 +2543,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>378</v>
       </c>
@@ -2592,7 +2557,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>378</v>
       </c>
@@ -2606,7 +2571,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>379</v>
       </c>
@@ -2620,7 +2585,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>379</v>
       </c>
@@ -2634,7 +2599,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>379</v>
       </c>
@@ -2648,7 +2613,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>379</v>
       </c>
@@ -2662,7 +2627,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>379</v>
       </c>
@@ -2676,7 +2641,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>379</v>
       </c>
@@ -2690,7 +2655,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>379</v>
       </c>
@@ -2704,7 +2669,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>379</v>
       </c>
@@ -2718,7 +2683,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>379</v>
       </c>
@@ -2732,7 +2697,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>379</v>
       </c>
@@ -2746,7 +2711,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>380</v>
       </c>
@@ -2760,7 +2725,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>380</v>
       </c>
@@ -2774,7 +2739,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>380</v>
       </c>
@@ -2788,7 +2753,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>380</v>
       </c>
@@ -2802,7 +2767,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>380</v>
       </c>
@@ -2816,7 +2781,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>380</v>
       </c>
@@ -2830,7 +2795,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>380</v>
       </c>
@@ -2844,7 +2809,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>380</v>
       </c>
@@ -2858,7 +2823,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>380</v>
       </c>
@@ -2872,7 +2837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>381</v>
       </c>
@@ -2886,7 +2851,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>381</v>
       </c>
@@ -2900,7 +2865,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>381</v>
       </c>
@@ -2914,7 +2879,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>381</v>
       </c>
@@ -2928,7 +2893,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>381</v>
       </c>
@@ -2942,7 +2907,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>382</v>
       </c>
@@ -2956,7 +2921,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>383</v>
       </c>
@@ -2970,7 +2935,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>383</v>
       </c>
@@ -2984,7 +2949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>383</v>
       </c>
@@ -2998,7 +2963,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>383</v>
       </c>
@@ -3012,7 +2977,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>383</v>
       </c>
@@ -3026,7 +2991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>383</v>
       </c>
@@ -3040,7 +3005,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>383</v>
       </c>
@@ -3054,7 +3019,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>383</v>
       </c>
@@ -3068,7 +3033,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>383</v>
       </c>
@@ -3082,7 +3047,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>384</v>
       </c>
@@ -3096,7 +3061,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>384</v>
       </c>
@@ -3110,7 +3075,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>384</v>
       </c>
@@ -3124,7 +3089,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>384</v>
       </c>
@@ -3138,7 +3103,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>384</v>
       </c>
@@ -3152,7 +3117,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>384</v>
       </c>
@@ -3166,7 +3131,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>384</v>
       </c>
@@ -3180,7 +3145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -3194,7 +3159,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>385</v>
       </c>
@@ -3208,7 +3173,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>385</v>
       </c>
@@ -3222,7 +3187,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>385</v>
       </c>
@@ -3236,7 +3201,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>385</v>
       </c>
@@ -3250,7 +3215,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>385</v>
       </c>
@@ -3264,7 +3229,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>385</v>
       </c>
@@ -3278,7 +3243,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>385</v>
       </c>
@@ -3292,7 +3257,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>385</v>
       </c>
@@ -3306,7 +3271,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>385</v>
       </c>
@@ -3320,7 +3285,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>386</v>
       </c>
@@ -3334,7 +3299,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>386</v>
       </c>
@@ -3348,7 +3313,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>386</v>
       </c>
@@ -3362,7 +3327,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>386</v>
       </c>
@@ -3376,7 +3341,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>386</v>
       </c>
@@ -3390,7 +3355,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>386</v>
       </c>
@@ -3404,7 +3369,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>386</v>
       </c>
@@ -3418,7 +3383,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>386</v>
       </c>
@@ -3432,7 +3397,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>386</v>
       </c>
@@ -3446,7 +3411,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>386</v>
       </c>
@@ -3460,7 +3425,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>386</v>
       </c>
@@ -3474,7 +3439,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>386</v>
       </c>
@@ -3488,7 +3453,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>387</v>
       </c>
@@ -3502,7 +3467,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>388</v>
       </c>
@@ -3516,7 +3481,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>388</v>
       </c>
@@ -3530,7 +3495,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>388</v>
       </c>
@@ -3544,7 +3509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>388</v>
       </c>
@@ -3558,7 +3523,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>388</v>
       </c>
@@ -3572,7 +3537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>388</v>
       </c>
@@ -3586,7 +3551,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>388</v>
       </c>
@@ -3600,7 +3565,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>388</v>
       </c>
@@ -3614,7 +3579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>388</v>
       </c>
@@ -3628,7 +3593,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>388</v>
       </c>
@@ -3642,7 +3607,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>388</v>
       </c>
@@ -3656,7 +3621,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>388</v>
       </c>
@@ -3670,7 +3635,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>388</v>
       </c>
@@ -3684,7 +3649,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>388</v>
       </c>
@@ -3698,7 +3663,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>389</v>
       </c>
@@ -3712,7 +3677,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>389</v>
       </c>
@@ -3726,7 +3691,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>390</v>
       </c>
@@ -3740,7 +3705,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>390</v>
       </c>
@@ -3754,7 +3719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>391</v>
       </c>
@@ -3768,7 +3733,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>391</v>
       </c>
@@ -3782,7 +3747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>391</v>
       </c>
@@ -3796,7 +3761,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>391</v>
       </c>
@@ -3810,7 +3775,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>391</v>
       </c>
@@ -3824,7 +3789,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>391</v>
       </c>
@@ -3838,7 +3803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>392</v>
       </c>
@@ -3852,7 +3817,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>392</v>
       </c>
@@ -3866,7 +3831,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>392</v>
       </c>
@@ -3880,7 +3845,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>393</v>
       </c>
@@ -3894,7 +3859,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>393</v>
       </c>
@@ -3908,7 +3873,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>393</v>
       </c>
@@ -3922,7 +3887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>393</v>
       </c>
@@ -3936,7 +3901,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>393</v>
       </c>
@@ -3950,7 +3915,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>393</v>
       </c>
@@ -3964,7 +3929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>393</v>
       </c>
@@ -3978,7 +3943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>393</v>
       </c>
@@ -3992,7 +3957,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>393</v>
       </c>
@@ -4006,7 +3971,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>393</v>
       </c>
@@ -4020,7 +3985,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>393</v>
       </c>
@@ -4034,7 +3999,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>393</v>
       </c>
@@ -4048,7 +4013,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>393</v>
       </c>
@@ -4062,7 +4027,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>393</v>
       </c>
@@ -4076,7 +4041,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>393</v>
       </c>
@@ -4090,7 +4055,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>394</v>
       </c>
@@ -4104,7 +4069,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>394</v>
       </c>
@@ -4118,7 +4083,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>394</v>
       </c>
@@ -4132,7 +4097,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>394</v>
       </c>
@@ -4146,7 +4111,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>394</v>
       </c>
@@ -4160,7 +4125,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>394</v>
       </c>
@@ -4174,7 +4139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>394</v>
       </c>
@@ -4188,7 +4153,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>394</v>
       </c>
@@ -4202,7 +4167,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>394</v>
       </c>
@@ -4216,7 +4181,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>394</v>
       </c>
@@ -4230,7 +4195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>394</v>
       </c>
@@ -4244,7 +4209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>394</v>
       </c>
@@ -4258,7 +4223,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>395</v>
       </c>
@@ -4272,7 +4237,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>396</v>
       </c>
@@ -4286,7 +4251,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>396</v>
       </c>
@@ -4300,7 +4265,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>396</v>
       </c>
@@ -4314,7 +4279,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>396</v>
       </c>
@@ -4328,7 +4293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>396</v>
       </c>
@@ -4342,7 +4307,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>397</v>
       </c>
@@ -4356,7 +4321,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>397</v>
       </c>
@@ -4370,7 +4335,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>397</v>
       </c>
@@ -4384,7 +4349,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>397</v>
       </c>
@@ -4398,7 +4363,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>398</v>
       </c>
@@ -4412,7 +4377,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>398</v>
       </c>
@@ -4426,7 +4391,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>399</v>
       </c>
@@ -4440,7 +4405,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>399</v>
       </c>
@@ -4454,7 +4419,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>399</v>
       </c>
@@ -4468,7 +4433,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>400</v>
       </c>
@@ -4482,7 +4447,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>401</v>
       </c>
@@ -4496,7 +4461,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>402</v>
       </c>
@@ -4510,7 +4475,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>402</v>
       </c>
@@ -4524,7 +4489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>402</v>
       </c>
@@ -4538,7 +4503,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>402</v>
       </c>
@@ -4552,7 +4517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>402</v>
       </c>
@@ -4566,7 +4531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>402</v>
       </c>
@@ -4580,7 +4545,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>402</v>
       </c>
@@ -4594,7 +4559,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>403</v>
       </c>
@@ -4608,7 +4573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>403</v>
       </c>
@@ -4622,7 +4587,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>403</v>
       </c>
@@ -4636,7 +4601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>403</v>
       </c>
@@ -4650,7 +4615,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>403</v>
       </c>
@@ -4664,7 +4629,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>403</v>
       </c>
@@ -4678,7 +4643,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>403</v>
       </c>
@@ -4692,7 +4657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>403</v>
       </c>
@@ -4706,7 +4671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>403</v>
       </c>
@@ -4720,7 +4685,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>403</v>
       </c>
@@ -4734,7 +4699,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>403</v>
       </c>
@@ -4748,7 +4713,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>403</v>
       </c>
@@ -4762,7 +4727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>404</v>
       </c>
@@ -4776,7 +4741,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>404</v>
       </c>
@@ -4790,7 +4755,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>404</v>
       </c>
@@ -4804,7 +4769,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>404</v>
       </c>
@@ -4818,7 +4783,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>405</v>
       </c>
@@ -4832,7 +4797,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>406</v>
       </c>
@@ -4846,7 +4811,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>406</v>
       </c>
@@ -4860,7 +4825,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>406</v>
       </c>
@@ -4874,7 +4839,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>406</v>
       </c>
@@ -4888,7 +4853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>406</v>
       </c>
@@ -4902,7 +4867,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>406</v>
       </c>
@@ -4916,7 +4881,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>406</v>
       </c>
@@ -4930,7 +4895,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>406</v>
       </c>
@@ -4944,7 +4909,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>406</v>
       </c>
@@ -4958,7 +4923,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>407</v>
       </c>
@@ -4972,7 +4937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>407</v>
       </c>
@@ -4986,7 +4951,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>407</v>
       </c>
@@ -5000,7 +4965,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>407</v>
       </c>
@@ -5014,7 +4979,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>407</v>
       </c>
@@ -5028,7 +4993,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>407</v>
       </c>
@@ -5042,7 +5007,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>407</v>
       </c>
@@ -5056,7 +5021,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>407</v>
       </c>
@@ -5070,7 +5035,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>408</v>
       </c>
@@ -5084,7 +5049,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>408</v>
       </c>
@@ -5098,7 +5063,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>409</v>
       </c>
@@ -5112,7 +5077,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>410</v>
       </c>
@@ -5126,7 +5091,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>410</v>
       </c>
@@ -5140,7 +5105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>410</v>
       </c>
@@ -5154,7 +5119,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>410</v>
       </c>
@@ -5168,7 +5133,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>410</v>
       </c>
@@ -5182,7 +5147,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>410</v>
       </c>
@@ -5196,7 +5161,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>410</v>
       </c>
@@ -5210,7 +5175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>410</v>
       </c>
@@ -5224,7 +5189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>410</v>
       </c>
@@ -5238,7 +5203,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>410</v>
       </c>
@@ -5252,7 +5217,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>410</v>
       </c>
@@ -5266,7 +5231,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>410</v>
       </c>
@@ -5280,7 +5245,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>410</v>
       </c>
@@ -5294,7 +5259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>410</v>
       </c>
@@ -5308,7 +5273,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>411</v>
       </c>
@@ -5322,7 +5287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>411</v>
       </c>
@@ -5336,7 +5301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>412</v>
       </c>
@@ -5350,7 +5315,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>412</v>
       </c>
@@ -5364,7 +5329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>412</v>
       </c>
@@ -5378,7 +5343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>412</v>
       </c>
@@ -5392,7 +5357,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>412</v>
       </c>
@@ -5406,7 +5371,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>412</v>
       </c>
@@ -5420,7 +5385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>413</v>
       </c>
@@ -5434,7 +5399,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>414</v>
       </c>
@@ -5448,7 +5413,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>415</v>
       </c>
@@ -5462,7 +5427,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>416</v>
       </c>
@@ -5476,7 +5441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>416</v>
       </c>
@@ -5490,7 +5455,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>417</v>
       </c>
@@ -5504,7 +5469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>417</v>
       </c>
@@ -5518,7 +5483,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>417</v>
       </c>
@@ -5532,7 +5497,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>418</v>
       </c>
@@ -5546,7 +5511,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>418</v>
       </c>
@@ -5560,7 +5525,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>418</v>
       </c>
@@ -5574,7 +5539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>418</v>
       </c>
@@ -5588,7 +5553,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>418</v>
       </c>
@@ -5602,7 +5567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>418</v>
       </c>
@@ -5616,7 +5581,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>418</v>
       </c>
@@ -5630,7 +5595,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>418</v>
       </c>
@@ -5644,7 +5609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>419</v>
       </c>
@@ -5658,7 +5623,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>420</v>
       </c>
@@ -5672,7 +5637,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>420</v>
       </c>
@@ -5686,7 +5651,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>420</v>
       </c>
@@ -5700,7 +5665,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>420</v>
       </c>
@@ -5714,7 +5679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>420</v>
       </c>
@@ -5728,7 +5693,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>420</v>
       </c>
@@ -5742,7 +5707,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>420</v>
       </c>
@@ -5756,7 +5721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>420</v>
       </c>
@@ -5770,7 +5735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>420</v>
       </c>
@@ -5784,7 +5749,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>420</v>
       </c>
@@ -5798,7 +5763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>420</v>
       </c>
@@ -5812,7 +5777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>420</v>
       </c>
@@ -5826,7 +5791,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>421</v>
       </c>
@@ -5840,7 +5805,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>421</v>
       </c>
@@ -5854,7 +5819,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>421</v>
       </c>
@@ -5868,7 +5833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>421</v>
       </c>
@@ -5882,7 +5847,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>421</v>
       </c>
@@ -5896,7 +5861,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>421</v>
       </c>
@@ -5910,7 +5875,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>421</v>
       </c>
@@ -5924,7 +5889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>421</v>
       </c>
@@ -5938,7 +5903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>421</v>
       </c>
@@ -5952,7 +5917,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>421</v>
       </c>
@@ -5966,7 +5931,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>421</v>
       </c>
@@ -5980,7 +5945,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>422</v>
       </c>
@@ -5994,7 +5959,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>422</v>
       </c>
@@ -6008,7 +5973,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>422</v>
       </c>
@@ -6022,7 +5987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>422</v>
       </c>
@@ -6036,7 +6001,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>423</v>
       </c>
@@ -6050,7 +6015,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>423</v>
       </c>
@@ -6064,7 +6029,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>424</v>
       </c>
@@ -6078,7 +6043,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>424</v>
       </c>
@@ -6092,7 +6057,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>424</v>
       </c>
@@ -6106,7 +6071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>424</v>
       </c>
@@ -6120,7 +6085,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>425</v>
       </c>
@@ -6134,7 +6099,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>425</v>
       </c>
@@ -6148,7 +6113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>425</v>
       </c>
@@ -6162,7 +6127,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>425</v>
       </c>
@@ -6176,7 +6141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>425</v>
       </c>
@@ -6190,7 +6155,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>426</v>
       </c>
@@ -6204,7 +6169,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>426</v>
       </c>
@@ -6218,7 +6183,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>426</v>
       </c>
@@ -6232,7 +6197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>426</v>
       </c>
@@ -6246,7 +6211,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>426</v>
       </c>
@@ -6260,7 +6225,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>426</v>
       </c>
@@ -6274,7 +6239,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>426</v>
       </c>
@@ -6288,7 +6253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>426</v>
       </c>
@@ -6302,7 +6267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>426</v>
       </c>
@@ -6316,7 +6281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>426</v>
       </c>
@@ -6330,7 +6295,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>426</v>
       </c>
@@ -6344,7 +6309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>426</v>
       </c>
@@ -6358,7 +6323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>426</v>
       </c>
@@ -6372,7 +6337,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>427</v>
       </c>
@@ -6386,7 +6351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>427</v>
       </c>
@@ -6400,7 +6365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>427</v>
       </c>
@@ -6414,7 +6379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>427</v>
       </c>
@@ -6428,7 +6393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>427</v>
       </c>
@@ -6442,7 +6407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>427</v>
       </c>
@@ -6456,7 +6421,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>427</v>
       </c>
@@ -6470,7 +6435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>427</v>
       </c>
@@ -6484,7 +6449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>427</v>
       </c>
@@ -6498,7 +6463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>428</v>
       </c>
@@ -6512,7 +6477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>428</v>
       </c>
@@ -6526,7 +6491,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>428</v>
       </c>
@@ -6540,7 +6505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>428</v>
       </c>
@@ -6554,7 +6519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>428</v>
       </c>
@@ -6568,7 +6533,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>428</v>
       </c>
@@ -6582,7 +6547,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>428</v>
       </c>
@@ -6596,7 +6561,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>428</v>
       </c>
@@ -6610,7 +6575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>428</v>
       </c>
@@ -6624,7 +6589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>428</v>
       </c>
@@ -6638,7 +6603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>428</v>
       </c>
@@ -6652,7 +6617,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>428</v>
       </c>
@@ -6666,7 +6631,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>428</v>
       </c>
@@ -6680,7 +6645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>428</v>
       </c>
@@ -6694,7 +6659,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>429</v>
       </c>
@@ -6708,7 +6673,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>429</v>
       </c>
@@ -6722,7 +6687,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>429</v>
       </c>
@@ -6736,7 +6701,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>429</v>
       </c>
@@ -6750,7 +6715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
         <v>429</v>
       </c>
@@ -6764,7 +6729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
         <v>429</v>
       </c>
@@ -6778,7 +6743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>429</v>
       </c>
@@ -6792,7 +6757,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>429</v>
       </c>
@@ -6806,7 +6771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>429</v>
       </c>
@@ -6820,7 +6785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>429</v>
       </c>
@@ -6834,7 +6799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>429</v>
       </c>
@@ -6848,7 +6813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
         <v>429</v>
       </c>
@@ -6862,7 +6827,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>430</v>
       </c>
@@ -6876,7 +6841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
         <v>430</v>
       </c>
@@ -6890,7 +6855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>430</v>
       </c>
@@ -6904,7 +6869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>430</v>
       </c>
@@ -6918,7 +6883,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
         <v>430</v>
       </c>
@@ -6932,7 +6897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>430</v>
       </c>
@@ -6946,7 +6911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>430</v>
       </c>
@@ -6960,7 +6925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>431</v>
       </c>
@@ -6974,7 +6939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>431</v>
       </c>
@@ -6988,7 +6953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>431</v>
       </c>
@@ -7002,7 +6967,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>431</v>
       </c>
@@ -7016,7 +6981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
         <v>431</v>
       </c>
@@ -7030,7 +6995,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
         <v>431</v>
       </c>
@@ -7044,7 +7009,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>431</v>
       </c>
@@ -7058,7 +7023,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>431</v>
       </c>
@@ -7072,7 +7037,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>431</v>
       </c>
@@ -7086,7 +7051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>431</v>
       </c>
@@ -7100,7 +7065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>432</v>
       </c>
@@ -7114,7 +7079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>432</v>
       </c>
@@ -7128,7 +7093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>432</v>
       </c>
@@ -7142,7 +7107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>432</v>
       </c>
@@ -7156,7 +7121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>432</v>
       </c>
@@ -7170,7 +7135,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>432</v>
       </c>
@@ -7184,7 +7149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>432</v>
       </c>
@@ -7198,7 +7163,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>432</v>
       </c>
@@ -7212,7 +7177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>432</v>
       </c>
@@ -7226,7 +7191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>432</v>
       </c>
@@ -7240,7 +7205,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
         <v>433</v>
       </c>
@@ -7254,7 +7219,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>433</v>
       </c>
@@ -7268,7 +7233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>433</v>
       </c>
@@ -7282,7 +7247,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>433</v>
       </c>
@@ -7296,7 +7261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>433</v>
       </c>
@@ -7310,7 +7275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>434</v>
       </c>
@@ -7324,7 +7289,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>435</v>
       </c>
@@ -7338,7 +7303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>436</v>
       </c>
@@ -7352,7 +7317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>437</v>
       </c>
@@ -7366,7 +7331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>437</v>
       </c>
@@ -7380,7 +7345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>437</v>
       </c>
@@ -7394,7 +7359,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>437</v>
       </c>
@@ -7408,7 +7373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
         <v>437</v>
       </c>
@@ -7422,7 +7387,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
         <v>437</v>
       </c>
@@ -7436,7 +7401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
         <v>437</v>
       </c>
@@ -7450,7 +7415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>437</v>
       </c>
@@ -7464,7 +7429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>437</v>
       </c>
@@ -7478,7 +7443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>437</v>
       </c>
@@ -7492,7 +7457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>437</v>
       </c>
@@ -7506,7 +7471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>437</v>
       </c>
@@ -7520,7 +7485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>437</v>
       </c>
@@ -7534,7 +7499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>438</v>
       </c>
@@ -7548,7 +7513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>439</v>
       </c>
@@ -7562,7 +7527,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>439</v>
       </c>
@@ -7576,7 +7541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>439</v>
       </c>
@@ -7590,7 +7555,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>439</v>
       </c>
@@ -7604,7 +7569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>440</v>
       </c>
@@ -7618,7 +7583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>440</v>
       </c>
@@ -7632,7 +7597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>440</v>
       </c>
@@ -7646,7 +7611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>440</v>
       </c>
@@ -7660,7 +7625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>440</v>
       </c>
@@ -7674,7 +7639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>440</v>
       </c>
@@ -7688,7 +7653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>440</v>
       </c>
@@ -7702,7 +7667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>441</v>
       </c>
@@ -7716,7 +7681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>441</v>
       </c>
@@ -7730,7 +7695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
         <v>441</v>
       </c>
@@ -7744,7 +7709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>442</v>
       </c>
@@ -7758,85 +7723,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A424"/>
       <c r="B424"/>
       <c r="C424"/>
       <c r="D424"/>
     </row>
-    <row r="425" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A425"/>
       <c r="B425"/>
       <c r="C425"/>
       <c r="D425"/>
     </row>
-    <row r="426" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A426"/>
       <c r="B426"/>
       <c r="C426"/>
       <c r="D426"/>
     </row>
-    <row r="427" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A427"/>
       <c r="B427"/>
       <c r="C427"/>
       <c r="D427"/>
     </row>
-    <row r="428" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A428"/>
       <c r="B428"/>
       <c r="C428"/>
       <c r="D428"/>
     </row>
-    <row r="429" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A429"/>
       <c r="B429"/>
       <c r="C429"/>
       <c r="D429"/>
     </row>
-    <row r="430" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A430"/>
       <c r="B430"/>
       <c r="C430"/>
       <c r="D430"/>
     </row>
-    <row r="431" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A431"/>
       <c r="B431"/>
       <c r="C431"/>
       <c r="D431"/>
     </row>
-    <row r="432" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A432"/>
       <c r="B432"/>
       <c r="C432"/>
       <c r="D432"/>
     </row>
-    <row r="433" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A433"/>
       <c r="B433"/>
       <c r="C433"/>
       <c r="D433"/>
     </row>
-    <row r="434" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A434"/>
       <c r="B434"/>
       <c r="C434"/>
       <c r="D434"/>
     </row>
-    <row r="435" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A435"/>
       <c r="B435"/>
       <c r="C435"/>
       <c r="D435"/>
     </row>
-    <row r="436" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A436"/>
       <c r="B436"/>
       <c r="C436"/>
       <c r="D436"/>
     </row>
-    <row r="437" spans="1:4" ht="14" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A437"/>
       <c r="B437"/>
       <c r="C437"/>
